--- a/config_10.27/game_module_config.xlsx
+++ b/config_10.27/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="872">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3651,6 +3651,34 @@
   </si>
   <si>
     <t>SYSJJSLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_033_VIP1ZTLBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_vip1ztlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1直通礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_033_xrzxlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRZXGiftManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4173,13 +4201,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A285" sqref="A285:XFD285"/>
+      <selection pane="bottomRight" activeCell="I289" sqref="I289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11446,16 +11474,68 @@
         <v>863</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" s="24" t="s">
         <v>864</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="19">
+        <v>286</v>
+      </c>
+      <c r="B287" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="C287" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="D287" s="23" t="s">
+        <v>865</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="I287" s="24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="19">
+        <v>287</v>
+      </c>
+      <c r="B288" s="18" t="s">
+        <v>868</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="I288" s="24" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
